--- a/ncp-gop-transect-2018-pkg13/ncp-gop-transect-2018-info.xlsx
+++ b/ncp-gop-transect-2018-pkg13/ncp-gop-transect-2018-info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2018-pkg13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012B4B2B-360F-4FA2-AF37-AB17FBFCBDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B4544-C11B-402E-9A5C-1324251ED083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30270" yWindow="3480" windowWidth="18000" windowHeight="13920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersGop" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="120">
   <si>
     <t>keyword</t>
   </si>
@@ -370,18 +370,6 @@
     <t>PI</t>
   </si>
   <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Cahill</t>
-  </si>
-  <si>
-    <t>kcahill@whoi.edu</t>
-  </si>
-  <si>
-    <t>technician</t>
-  </si>
-  <si>
     <t>Arshia</t>
   </si>
   <si>
@@ -407,6 +395,12 @@
   </si>
   <si>
     <t>OCE-2322679</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Sandwith</t>
   </si>
 </sst>
 </file>
@@ -500,9 +494,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -540,7 +534,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -646,7 +640,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -788,7 +782,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1198,7 +1192,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1255,7 +1249,7 @@
         <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1287,7 +1281,7 @@
         <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1319,7 +1313,7 @@
         <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1351,24 +1345,21 @@
         <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
         <v>97</v>
       </c>
-      <c r="E6" t="s">
-        <v>111</v>
-      </c>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
         <v>97</v>
@@ -1382,16 +1373,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
         <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
         <v>107</v>
@@ -1408,10 +1399,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
         <v>97</v>

--- a/ncp-gop-transect-2018-pkg13/ncp-gop-transect-2018-info.xlsx
+++ b/ncp-gop-transect-2018-pkg13/ncp-gop-transect-2018-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2018-pkg13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B4544-C11B-402E-9A5C-1324251ED083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EC61FE-7590-4F76-AA92-9ADC091949B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="3480" windowWidth="18000" windowHeight="13920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersGop" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="123">
   <si>
     <t>keyword</t>
   </si>
@@ -401,6 +401,15 @@
   </si>
   <si>
     <t>Sandwith</t>
+  </si>
+  <si>
+    <t>0000-0001-9952-9526</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>zoe.sandwith@hakai.org</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1201,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1352,11 +1361,20 @@
       <c r="A6" t="s">
         <v>118</v>
       </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
       <c r="C6" t="s">
         <v>119</v>
       </c>
       <c r="D6" t="s">
         <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
       </c>
       <c r="G6" t="s">
         <v>107</v>

--- a/ncp-gop-transect-2018-pkg13/ncp-gop-transect-2018-info.xlsx
+++ b/ncp-gop-transect-2018-pkg13/ncp-gop-transect-2018-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanglab\Documents\GitHub\nes-lter-eims-toi-ncp-gop\ncp-gop-transect-2018-pkg13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EC61FE-7590-4F76-AA92-9ADC091949B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0296370-7150-406E-B017-F8E186009423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeadersGop" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="128">
   <si>
     <t>keyword</t>
   </si>
@@ -289,9 +289,6 @@
     <t>temperature</t>
   </si>
   <si>
-    <t>Underway thermosalinograph salinity in degrees Celsius. URI http://vocab.nerc.ac.uk/collection/P01/current/TEMPSZ01/</t>
-  </si>
-  <si>
     <t>celsius</t>
   </si>
   <si>
@@ -410,6 +407,24 @@
   </si>
   <si>
     <t>zoe.sandwith@hakai.org</t>
+  </si>
+  <si>
+    <t>Underway thermosalinograph temperature in degrees Celsius. URI http://vocab.nerc.ac.uk/collection/P01/current/TEMPSZ01/</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Morkeski</t>
+  </si>
+  <si>
+    <t>kmorkeski@whoi.edu</t>
+  </si>
+  <si>
+    <t>0000-0002-2903-5851</t>
+  </si>
+  <si>
+    <t>metadata Provider</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1037,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1127,21 +1142,21 @@
         <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -1198,244 +1213,273 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855F0EBB-6757-4EBB-BC10-7851563D0369}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A9" sqref="A9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>94</v>
-      </c>
-      <c r="J1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
         <v>96</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>98</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
         <v>99</v>
       </c>
-      <c r="H2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" t="s">
-        <v>100</v>
-      </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>103</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
         <v>104</v>
       </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>105</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>106</v>
       </c>
-      <c r="G3" t="s">
-        <v>107</v>
-      </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>103</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
         <v>104</v>
       </c>
-      <c r="D4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>105</v>
       </c>
-      <c r="F4" t="s">
-        <v>106</v>
-      </c>
       <c r="G4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
         <v>99</v>
       </c>
-      <c r="H4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" t="s">
-        <v>100</v>
-      </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
         <v>102</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>103</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
         <v>104</v>
       </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>105</v>
       </c>
-      <c r="F5" t="s">
-        <v>106</v>
-      </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
         <v>118</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
         <v>121</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>119</v>
       </c>
-      <c r="D6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" t="s">
-        <v>120</v>
-      </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" t="s">
         <v>100</v>
-      </c>
-      <c r="J6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
         <v>109</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
         <v>110</v>
       </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>111</v>
-      </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" t="s">
         <v>100</v>
-      </c>
-      <c r="J7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
         <v>112</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
         <v>113</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
